--- a/docentes/González Sánchez Rene Aurelio Estadisticos 2020.xlsx
+++ b/docentes/González Sánchez Rene Aurelio Estadisticos 2020.xlsx
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>12</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
